--- a/Data/Excel/【新模板】用地用海_中类.xlsx
+++ b/Data/Excel/【新模板】用地用海_中类.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
   <si>
     <t>用地用海汇总表</t>
   </si>
@@ -207,9 +207,6 @@
     <t>空闲地</t>
   </si>
   <si>
-    <t>田间道</t>
-  </si>
-  <si>
     <t>裸岩石砾地</t>
   </si>
   <si>
@@ -299,9 +296,6 @@
     <t>消防用地</t>
   </si>
   <si>
-    <t>干渠</t>
-  </si>
-  <si>
     <t>1402</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -334,22 +328,6 @@
     <t>冰川及常年积雪</t>
   </si>
   <si>
-    <t>2304</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2302</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2305</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2306</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>田坎</t>
   </si>
   <si>
@@ -714,263 +692,283 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>1501</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1503</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1504</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1505</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1506</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1507</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1701</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1702</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1703</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1704</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1705</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1706</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>林地</t>
+  </si>
+  <si>
+    <t>草地</t>
+  </si>
+  <si>
+    <t>绿地与开敞空间用地</t>
+  </si>
+  <si>
+    <t>园地</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>渔业用海</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>渔业基础设施用海</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>增养殖用海</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>捕捞海域</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>工矿通信用海</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>工业用海</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>盐田用海</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>固体矿产用海</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>油气用海</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>可再生能源用海</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>海底电缆管道用海</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>交通运输用海</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>港口用海</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>航运用海</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>路桥隧道用海</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>游憩用海</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>风景旅游用海</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>文体休闲娱乐用海</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>特殊用海</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>军事用海</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>其他特殊用海</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>其他海域</t>
+  </si>
+  <si>
+    <t>0205</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶园地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>油料园地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>设施农用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>娱乐用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇村道路用地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1804</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>农林牧业用岛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>科研教育用海</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>海洋保护修复及海岸防护工程用海</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>排污倾倒用海</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>水下文物保护用海</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>农村道路</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>1312</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1501</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1503</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1504</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1505</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1506</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1507</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1701</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1702</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1703</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1704</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1705</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1706</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>林地</t>
-  </si>
-  <si>
-    <t>草地</t>
-  </si>
-  <si>
-    <t>绿地与开敞空间用地</t>
-  </si>
-  <si>
-    <t>园地</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>渔业用海</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>渔业基础设施用海</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>增养殖用海</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>捕捞海域</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>工矿通信用海</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>工业用海</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>盐田用海</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>固体矿产用海</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>油气用海</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>可再生能源用海</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>海底电缆管道用海</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>交通运输用海</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>港口用海</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>航运用海</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>路桥隧道用海</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>游憩用海</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>风景旅游用海</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>文体休闲娱乐用海</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>特殊用海</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>军事用海</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>其他特殊用海</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>其他海域</t>
-  </si>
-  <si>
-    <t>0205</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>橡胶园地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>油料园地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>设施农用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>娱乐用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>城镇村道路用地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1804</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>农林牧业用岛</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>科研教育用海</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>海洋保护修复及海岸防护工程用海</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>排污倾倒用海</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>水下文物保护用海</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>农村道路</t>
+    <t>2004</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>机场用海</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他交通运输用海</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>后备耕地</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1243,6 +1241,15 @@
     <xf numFmtId="177" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1253,21 +1260,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1285,8 +1277,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1593,10 +1591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I139"/>
+  <dimension ref="B2:I140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1607,26 +1605,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="B2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="38" t="s">
+      <c r="B3" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="38" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1637,23 +1635,23 @@
       <c r="C4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="28" t="s">
-        <v>109</v>
+      <c r="B5" s="31" t="s">
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="19">
         <v>0</v>
       </c>
       <c r="F5" s="18" t="e">
-        <f>E5/E139*100</f>
+        <f>E5/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H5" s="22" t="str">
@@ -1666,9 +1664,9 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="29"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>5</v>
@@ -1677,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="13" t="e">
-        <f>E6/E139*100</f>
+        <f>E6/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H6" s="22">
@@ -1690,9 +1688,9 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="29"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>6</v>
@@ -1701,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="13" t="e">
-        <f>E7/E139*100</f>
+        <f>E7/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H7" s="22">
@@ -1714,9 +1712,9 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="30"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>7</v>
@@ -1725,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="13" t="e">
-        <f>E8/E139*100</f>
+        <f>E8/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H8" s="22">
@@ -1738,18 +1736,18 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="28" t="s">
-        <v>110</v>
+      <c r="B9" s="31" t="s">
+        <v>104</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E9" s="19">
         <v>0</v>
       </c>
       <c r="F9" s="19" t="e">
-        <f>E9/E139*100</f>
+        <f>E9/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H9" s="22" t="str">
@@ -1762,9 +1760,9 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="29"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>8</v>
@@ -1773,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="13" t="e">
-        <f>E10/E139*100</f>
+        <f>E10/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H10" s="22">
@@ -1786,9 +1784,9 @@
       </c>
     </row>
     <row r="11" spans="2:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="29"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>9</v>
@@ -1797,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="14" t="e">
-        <f>E11/E139*100</f>
+        <f>E11/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H11" s="22">
@@ -1810,18 +1808,18 @@
       </c>
     </row>
     <row r="12" spans="2:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="29"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E12" s="26">
         <v>0</v>
       </c>
       <c r="F12" s="14" t="e">
-        <f>E12/E139*100</f>
+        <f>E12/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H12" s="22">
@@ -1834,18 +1832,18 @@
       </c>
     </row>
     <row r="13" spans="2:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="29"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E13" s="26">
         <v>0</v>
       </c>
       <c r="F13" s="14" t="e">
-        <f>E13/E139*100</f>
+        <f>E13/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H13" s="22">
@@ -1858,9 +1856,9 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="30"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="9" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>10</v>
@@ -1869,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="13" t="e">
-        <f>E14/E139*100</f>
+        <f>E14/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H14" s="22">
@@ -1882,18 +1880,18 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="28" t="s">
-        <v>111</v>
+      <c r="B15" s="31" t="s">
+        <v>105</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E15" s="19">
         <v>0</v>
       </c>
       <c r="F15" s="19" t="e">
-        <f>E15/E139*100</f>
+        <f>E15/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H15" s="22" t="str">
@@ -1906,9 +1904,9 @@
       </c>
     </row>
     <row r="16" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="29"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>11</v>
@@ -1917,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="13" t="e">
-        <f>E16/E139*100</f>
+        <f>E16/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H16" s="22">
@@ -1930,9 +1928,9 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="29"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="9" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>12</v>
@@ -1941,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="13" t="e">
-        <f>E17/E139*100</f>
+        <f>E17/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H17" s="22">
@@ -1954,9 +1952,9 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="29"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>13</v>
@@ -1965,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="13" t="e">
-        <f>E18/E139*100</f>
+        <f>E18/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H18" s="22">
@@ -1978,9 +1976,9 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="30"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>14</v>
@@ -1989,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="13" t="e">
-        <f>E19/E139*100</f>
+        <f>E19/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H19" s="22">
@@ -2002,18 +2000,18 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="28" t="s">
-        <v>112</v>
+      <c r="B20" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E20" s="19">
         <v>0</v>
       </c>
       <c r="F20" s="19" t="e">
-        <f>E20/E139*100</f>
+        <f>E20/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="22" t="str">
@@ -2026,9 +2024,9 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="29"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>15</v>
@@ -2037,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="13" t="e">
-        <f>E21/E139*100</f>
+        <f>E21/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H21" s="22">
@@ -2050,9 +2048,9 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="29"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="9" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>16</v>
@@ -2061,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="13" t="e">
-        <f>E22/E139*100</f>
+        <f>E22/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H22" s="22">
@@ -2074,9 +2072,9 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="30"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="9" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>17</v>
@@ -2085,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="13" t="e">
-        <f>E23/E139*100</f>
+        <f>E23/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H23" s="22">
@@ -2098,18 +2096,18 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="28" t="s">
-        <v>113</v>
+      <c r="B24" s="31" t="s">
+        <v>107</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="19">
         <v>0</v>
       </c>
       <c r="F24" s="19" t="e">
-        <f>E24/E139*100</f>
+        <f>E24/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H24" s="22" t="str">
@@ -2122,9 +2120,9 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="29"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>18</v>
@@ -2133,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="13" t="e">
-        <f>E25/E139*100</f>
+        <f>E25/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H25" s="22">
@@ -2146,9 +2144,9 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="29"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="9" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>19</v>
@@ -2157,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="13" t="e">
-        <f>E26/E139*100</f>
+        <f>E26/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H26" s="22">
@@ -2170,9 +2168,9 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="29"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>20</v>
@@ -2181,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="13" t="e">
-        <f>E27/E139*100</f>
+        <f>E27/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H27" s="22">
@@ -2194,9 +2192,9 @@
       </c>
     </row>
     <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="29"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="9" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>21</v>
@@ -2205,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="13" t="e">
-        <f>E28/E139*100</f>
+        <f>E28/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="22">
@@ -2218,9 +2216,9 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="29"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>22</v>
@@ -2229,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="13" t="e">
-        <f>E29/E139*100</f>
+        <f>E29/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="22">
@@ -2242,9 +2240,9 @@
       </c>
     </row>
     <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="29"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="9" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>23</v>
@@ -2253,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="13" t="e">
-        <f>E30/E139*100</f>
+        <f>E30/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H30" s="22">
@@ -2266,9 +2264,9 @@
       </c>
     </row>
     <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="30"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>24</v>
@@ -2277,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="13" t="e">
-        <f>E31/E139*100</f>
+        <f>E31/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H31" s="22">
@@ -2290,18 +2288,18 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="28" t="s">
-        <v>114</v>
+      <c r="B32" s="31" t="s">
+        <v>108</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32" s="19">
         <v>0</v>
       </c>
       <c r="F32" s="19" t="e">
-        <f>E32/E139*100</f>
+        <f>E32/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H32" s="22" t="str">
@@ -2314,18 +2312,18 @@
       </c>
     </row>
     <row r="33" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="29"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="16" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E33" s="26">
         <v>0</v>
       </c>
       <c r="F33" s="13" t="e">
-        <f>E33/E139*100</f>
+        <f>E33/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H33" s="22">
@@ -2338,18 +2336,18 @@
       </c>
     </row>
     <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="29"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="9" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E34" s="26">
         <v>0</v>
       </c>
       <c r="F34" s="13" t="e">
-        <f>E34/E139*100</f>
+        <f>E34/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H34" s="22">
@@ -2362,18 +2360,18 @@
       </c>
     </row>
     <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="28" t="s">
-        <v>115</v>
+      <c r="B35" s="31" t="s">
+        <v>109</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E35" s="19">
         <v>0</v>
       </c>
       <c r="F35" s="19" t="e">
-        <f>E35/E139*100</f>
+        <f>E35/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H35" s="22" t="str">
@@ -2386,18 +2384,18 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="29"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="16" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E36" s="26">
         <v>0</v>
       </c>
       <c r="F36" s="13" t="e">
-        <f>E36/E139*100</f>
+        <f>E36/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H36" s="22">
@@ -2410,9 +2408,9 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="29"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>25</v>
@@ -2421,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="13" t="e">
-        <f>E37/E139*100</f>
+        <f>E37/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H37" s="22">
@@ -2434,18 +2432,18 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="29"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="16" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E38" s="26">
         <v>0</v>
       </c>
       <c r="F38" s="13" t="e">
-        <f>E38/E139*100</f>
+        <f>E38/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H38" s="22">
@@ -2458,9 +2456,9 @@
       </c>
     </row>
     <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="30"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="9" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>26</v>
@@ -2469,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="13" t="e">
-        <f>E39/E139*100</f>
+        <f>E39/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H39" s="22">
@@ -2482,18 +2480,18 @@
       </c>
     </row>
     <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="34" t="s">
-        <v>116</v>
+      <c r="B40" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E40" s="19">
         <v>0</v>
       </c>
       <c r="F40" s="19" t="e">
-        <f>E40/E139*100</f>
+        <f>E40/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H40" s="22" t="str">
@@ -2506,9 +2504,9 @@
       </c>
     </row>
     <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="35"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="9" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>27</v>
@@ -2517,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="13" t="e">
-        <f>E41/E139*100</f>
+        <f>E41/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H41" s="22">
@@ -2530,9 +2528,9 @@
       </c>
     </row>
     <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="35"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="9" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>28</v>
@@ -2541,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="13" t="e">
-        <f>E42/E139*100</f>
+        <f>E42/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H42" s="22">
@@ -2554,9 +2552,9 @@
       </c>
     </row>
     <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="35"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="16" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>29</v>
@@ -2565,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="13" t="e">
-        <f>E43/E139*100</f>
+        <f>E43/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H43" s="22">
@@ -2578,9 +2576,9 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="35"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="16" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>30</v>
@@ -2589,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="13" t="e">
-        <f>E44/E139*100</f>
+        <f>E44/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H44" s="22">
@@ -2602,9 +2600,9 @@
       </c>
     </row>
     <row r="45" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="35"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="16" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>31</v>
@@ -2613,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="13" t="e">
-        <f>E45/E139*100</f>
+        <f>E45/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H45" s="22">
@@ -2626,42 +2624,42 @@
       </c>
     </row>
     <row r="46" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="35"/>
+      <c r="B46" s="28"/>
       <c r="C46" s="16" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D46" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="26">
+        <v>0</v>
+      </c>
+      <c r="F46" s="13" t="e">
+        <f>E46/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H46" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>0806</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="28"/>
+      <c r="C47" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E46" s="26">
-        <v>0</v>
-      </c>
-      <c r="F46" s="13" t="e">
-        <f>E46/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H46" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>0806</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="35"/>
-      <c r="C47" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="E47" s="26">
         <v>0</v>
       </c>
       <c r="F47" s="13" t="e">
-        <f>E47/E139*100</f>
+        <f>E47/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H47" s="22">
@@ -2674,18 +2672,18 @@
       </c>
     </row>
     <row r="48" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="34" t="s">
-        <v>117</v>
+      <c r="B48" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E48" s="19">
         <v>0</v>
       </c>
       <c r="F48" s="19" t="e">
-        <f>E48/E139*100</f>
+        <f>E48/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H48" s="22" t="str">
@@ -2698,9 +2696,9 @@
       </c>
     </row>
     <row r="49" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="35"/>
+      <c r="B49" s="28"/>
       <c r="C49" s="17" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>32</v>
@@ -2709,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="13" t="e">
-        <f>E49/E139*100</f>
+        <f>E49/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H49" s="22">
@@ -2722,9 +2720,9 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="35"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="9" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>33</v>
@@ -2733,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="13" t="e">
-        <f>E50/E139*100</f>
+        <f>E50/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H50" s="22">
@@ -2746,18 +2744,18 @@
       </c>
     </row>
     <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="35"/>
+      <c r="B51" s="28"/>
       <c r="C51" s="16" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E51" s="26">
         <v>0</v>
       </c>
       <c r="F51" s="13" t="e">
-        <f>E51/E139*100</f>
+        <f>E51/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H51" s="22">
@@ -2770,9 +2768,9 @@
       </c>
     </row>
     <row r="52" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="43"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="9" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>34</v>
@@ -2781,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="13" t="e">
-        <f>E52/E139*100</f>
+        <f>E52/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H52" s="22">
@@ -2794,18 +2792,18 @@
       </c>
     </row>
     <row r="53" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="34" t="s">
-        <v>118</v>
+      <c r="B53" s="27" t="s">
+        <v>112</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E53" s="19">
         <v>0</v>
       </c>
       <c r="F53" s="19" t="e">
-        <f>E53/E139*100</f>
+        <f>E53/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H53" s="22" t="str">
@@ -2818,9 +2816,9 @@
       </c>
     </row>
     <row r="54" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="35"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="16" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>35</v>
@@ -2829,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="13" t="e">
-        <f>E54/E139*100</f>
+        <f>E54/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H54" s="22">
@@ -2842,9 +2840,9 @@
       </c>
     </row>
     <row r="55" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="35"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="9" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>36</v>
@@ -2853,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="13" t="e">
-        <f>E55/E139*100</f>
+        <f>E55/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H55" s="22">
@@ -2866,18 +2864,18 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="43"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E56" s="26">
         <v>0</v>
       </c>
       <c r="F56" s="13" t="e">
-        <f>E56/E139*100</f>
+        <f>E56/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H56" s="22">
@@ -2890,18 +2888,18 @@
       </c>
     </row>
     <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="31" t="s">
-        <v>119</v>
+      <c r="B57" s="41" t="s">
+        <v>113</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E57" s="19">
         <v>0</v>
       </c>
       <c r="F57" s="19" t="e">
-        <f>E57/E139*100</f>
+        <f>E57/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H57" s="22" t="str">
@@ -2914,9 +2912,9 @@
       </c>
     </row>
     <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="32"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="16" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>37</v>
@@ -2925,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="13" t="e">
-        <f>E58/E139*100</f>
+        <f>E58/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H58" s="22">
@@ -2938,9 +2936,9 @@
       </c>
     </row>
     <row r="59" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="33"/>
+      <c r="B59" s="43"/>
       <c r="C59" s="9" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>38</v>
@@ -2949,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="13" t="e">
-        <f>E59/E139*100</f>
+        <f>E59/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H59" s="22">
@@ -2962,18 +2960,18 @@
       </c>
     </row>
     <row r="60" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="31" t="s">
-        <v>120</v>
+      <c r="B60" s="41" t="s">
+        <v>114</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E60" s="19">
         <v>0</v>
       </c>
       <c r="F60" s="19" t="e">
-        <f>E60/E139*100</f>
+        <f>E60/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H60" s="22" t="str">
@@ -2986,9 +2984,9 @@
       </c>
     </row>
     <row r="61" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="32"/>
+      <c r="B61" s="42"/>
       <c r="C61" s="9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>39</v>
@@ -2997,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="13" t="e">
-        <f>E61/E139*100</f>
+        <f>E61/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H61" s="22">
@@ -3010,9 +3008,9 @@
       </c>
     </row>
     <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="32"/>
+      <c r="B62" s="42"/>
       <c r="C62" s="9" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>40</v>
@@ -3021,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="13" t="e">
-        <f>E62/E139*100</f>
+        <f>E62/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H62" s="22">
@@ -3034,18 +3032,18 @@
       </c>
     </row>
     <row r="63" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="32"/>
+      <c r="B63" s="42"/>
       <c r="C63" s="9" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E63" s="26">
         <v>0</v>
       </c>
       <c r="F63" s="13" t="e">
-        <f>E63/E139*100</f>
+        <f>E63/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H63" s="22">
@@ -3058,18 +3056,18 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="32"/>
+      <c r="B64" s="42"/>
       <c r="C64" s="9" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E64" s="26">
         <v>0</v>
       </c>
       <c r="F64" s="13" t="e">
-        <f>E64/E139*100</f>
+        <f>E64/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H64" s="22">
@@ -3082,18 +3080,18 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="32"/>
+      <c r="B65" s="42"/>
       <c r="C65" s="9" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E65" s="26">
         <v>0</v>
       </c>
       <c r="F65" s="13" t="e">
-        <f>E65/E139*100</f>
+        <f>E65/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H65" s="22">
@@ -3106,18 +3104,18 @@
       </c>
     </row>
     <row r="66" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="32"/>
+      <c r="B66" s="42"/>
       <c r="C66" s="9" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E66" s="26">
         <v>0</v>
       </c>
       <c r="F66" s="13" t="e">
-        <f>E66/E139*100</f>
+        <f>E66/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H66" s="22">
@@ -3130,18 +3128,18 @@
       </c>
     </row>
     <row r="67" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="32"/>
+      <c r="B67" s="42"/>
       <c r="C67" s="9" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E67" s="26">
         <v>0</v>
       </c>
       <c r="F67" s="13" t="e">
-        <f>E67/E139*100</f>
+        <f>E67/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H67" s="22">
@@ -3154,9 +3152,9 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="32"/>
+      <c r="B68" s="42"/>
       <c r="C68" s="16" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>41</v>
@@ -3165,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="13" t="e">
-        <f>E68/E139*100</f>
+        <f>E68/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H68" s="22">
@@ -3178,9 +3176,9 @@
       </c>
     </row>
     <row r="69" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="33"/>
+      <c r="B69" s="43"/>
       <c r="C69" s="9" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>42</v>
@@ -3189,11 +3187,11 @@
         <v>0</v>
       </c>
       <c r="F69" s="13" t="e">
-        <f>E69/E139*100</f>
+        <f>E69/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H69" s="22">
-        <f t="shared" ref="H69:I137" si="3">B69</f>
+        <f t="shared" ref="H69:I138" si="3">B69</f>
         <v>0</v>
       </c>
       <c r="I69" s="22" t="str">
@@ -3202,18 +3200,18 @@
       </c>
     </row>
     <row r="70" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="31" t="s">
-        <v>121</v>
+      <c r="B70" s="41" t="s">
+        <v>115</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E70" s="19">
         <v>0</v>
       </c>
       <c r="F70" s="19" t="e">
-        <f>E70/E139*100</f>
+        <f>E70/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H70" s="22" t="str">
@@ -3226,9 +3224,9 @@
       </c>
     </row>
     <row r="71" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="32"/>
+      <c r="B71" s="42"/>
       <c r="C71" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>43</v>
@@ -3237,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="13" t="e">
-        <f>E71/E139*100</f>
+        <f>E71/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H71" s="22">
@@ -3250,9 +3248,9 @@
       </c>
     </row>
     <row r="72" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="32"/>
+      <c r="B72" s="42"/>
       <c r="C72" s="9" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>44</v>
@@ -3261,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="13" t="e">
-        <f>E72/E139*100</f>
+        <f>E72/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H72" s="22">
@@ -3274,9 +3272,9 @@
       </c>
     </row>
     <row r="73" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="32"/>
+      <c r="B73" s="42"/>
       <c r="C73" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>45</v>
@@ -3285,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="13" t="e">
-        <f>E73/E139*100</f>
+        <f>E73/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H73" s="22">
@@ -3298,9 +3296,9 @@
       </c>
     </row>
     <row r="74" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="32"/>
+      <c r="B74" s="42"/>
       <c r="C74" s="9" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>46</v>
@@ -3309,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="13" t="e">
-        <f>E74/E139*100</f>
+        <f>E74/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H74" s="22">
@@ -3322,18 +3320,18 @@
       </c>
     </row>
     <row r="75" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="32"/>
+      <c r="B75" s="42"/>
       <c r="C75" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D75" s="8" t="s">
-        <v>189</v>
-      </c>
       <c r="E75" s="26">
         <v>0</v>
       </c>
       <c r="F75" s="13" t="e">
-        <f>E75/E139*100</f>
+        <f>E75/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H75" s="22">
@@ -3346,81 +3344,81 @@
       </c>
     </row>
     <row r="76" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="32"/>
+      <c r="B76" s="42"/>
       <c r="C76" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E76" s="26">
+        <v>0</v>
+      </c>
+      <c r="F76" s="13" t="e">
+        <f>E76/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H76" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="42"/>
+      <c r="C77" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E77" s="26">
+        <v>0</v>
+      </c>
+      <c r="F77" s="13" t="e">
+        <f>E77/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H77" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="42"/>
+      <c r="C78" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E78" s="26">
+        <v>0</v>
+      </c>
+      <c r="F78" s="13" t="e">
+        <f>E78/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H78" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="42"/>
+      <c r="C79" s="9" t="s">
         <v>184</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E76" s="26">
-        <v>0</v>
-      </c>
-      <c r="F76" s="13" t="e">
-        <f>E76/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H76" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I76" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="32"/>
-      <c r="C77" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E77" s="26">
-        <v>0</v>
-      </c>
-      <c r="F77" s="13" t="e">
-        <f>E77/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H77" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I77" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="32"/>
-      <c r="C78" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E78" s="26">
-        <v>0</v>
-      </c>
-      <c r="F78" s="13" t="e">
-        <f>E78/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H78" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I78" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="32"/>
-      <c r="C79" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>47</v>
@@ -3429,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="13" t="e">
-        <f>E79/E139*100</f>
+        <f>E79/E140*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H79" s="22">
@@ -3442,1481 +3440,1505 @@
       </c>
     </row>
     <row r="80" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="32"/>
+      <c r="B80" s="42"/>
       <c r="C80" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E80" s="26">
+        <v>0</v>
+      </c>
+      <c r="F80" s="13" t="e">
+        <f>E80/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H80" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="42"/>
+      <c r="C81" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E81" s="26">
+        <v>0</v>
+      </c>
+      <c r="F81" s="13" t="e">
+        <f>E81/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H81" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I81" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="43"/>
+      <c r="C82" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E82" s="26">
+        <v>0</v>
+      </c>
+      <c r="F82" s="13" t="e">
+        <f>E82/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H82" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I82" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E83" s="19">
+        <v>0</v>
+      </c>
+      <c r="F83" s="19" t="e">
+        <f>E83/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H83" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="I83" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="42"/>
+      <c r="C84" s="9">
+        <v>1401</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E84" s="26">
+        <v>0</v>
+      </c>
+      <c r="F84" s="13" t="e">
+        <f>E84/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H84" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="22">
+        <f t="shared" si="3"/>
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="42"/>
+      <c r="C85" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E85" s="26">
+        <v>0</v>
+      </c>
+      <c r="F85" s="13" t="e">
+        <f>E85/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H85" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I85" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="43"/>
+      <c r="C86" s="9">
+        <v>1403</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E86" s="26">
+        <v>0</v>
+      </c>
+      <c r="F86" s="13" t="e">
+        <f>E86/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H86" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="22">
+        <f t="shared" si="3"/>
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E87" s="19">
+        <v>0</v>
+      </c>
+      <c r="F87" s="19" t="e">
+        <f>E87/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H87" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="I87" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="42"/>
+      <c r="C88" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E88" s="26">
+        <v>0</v>
+      </c>
+      <c r="F88" s="13" t="e">
+        <f>E88/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H88" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I88" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="42"/>
+      <c r="C89" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E89" s="26">
+        <v>0</v>
+      </c>
+      <c r="F89" s="13" t="e">
+        <f>E89/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H89" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I89" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B90" s="42"/>
+      <c r="C90" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E90" s="26">
+        <v>0</v>
+      </c>
+      <c r="F90" s="13" t="e">
+        <f>E90/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H90" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I90" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B91" s="42"/>
+      <c r="C91" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E91" s="26">
+        <v>0</v>
+      </c>
+      <c r="F91" s="13" t="e">
+        <f>E91/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H91" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I91" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B92" s="42"/>
+      <c r="C92" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E92" s="26">
+        <v>0</v>
+      </c>
+      <c r="F92" s="13" t="e">
+        <f>E92/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H92" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I92" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="42"/>
+      <c r="C93" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D80" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E80" s="26">
-        <v>0</v>
-      </c>
-      <c r="F80" s="13" t="e">
-        <f>E80/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H80" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I80" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="32"/>
-      <c r="C81" s="9" t="s">
+      <c r="D93" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E93" s="26">
+        <v>0</v>
+      </c>
+      <c r="F93" s="13" t="e">
+        <f>E93/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H93" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I93" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B94" s="43"/>
+      <c r="C94" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="D81" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E81" s="26">
-        <v>0</v>
-      </c>
-      <c r="F81" s="13" t="e">
-        <f>E81/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H81" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I81" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="32"/>
-      <c r="C82" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E82" s="26">
-        <v>0</v>
-      </c>
-      <c r="F82" s="13" t="e">
-        <f>E82/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H82" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I82" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="33"/>
-      <c r="C83" s="9">
-        <v>1313</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E83" s="26">
-        <v>0</v>
-      </c>
-      <c r="F83" s="13" t="e">
-        <f>E83/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H83" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I83" s="22">
-        <f t="shared" si="3"/>
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E84" s="19">
-        <v>0</v>
-      </c>
-      <c r="F84" s="19" t="e">
-        <f>E84/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H84" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="I84" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="32"/>
-      <c r="C85" s="9">
-        <v>1401</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E85" s="26">
-        <v>0</v>
-      </c>
-      <c r="F85" s="13" t="e">
-        <f>E85/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H85" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I85" s="22">
-        <f t="shared" si="3"/>
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="32"/>
-      <c r="C86" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E86" s="26">
-        <v>0</v>
-      </c>
-      <c r="F86" s="13" t="e">
-        <f>E86/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H86" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I86" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="33"/>
-      <c r="C87" s="9">
-        <v>1403</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E87" s="26">
-        <v>0</v>
-      </c>
-      <c r="F87" s="13" t="e">
-        <f>E87/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H87" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I87" s="22">
-        <f t="shared" si="3"/>
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E88" s="19">
-        <v>0</v>
-      </c>
-      <c r="F88" s="19" t="e">
-        <f>E88/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H88" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="I88" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="32"/>
-      <c r="C89" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D89" s="8" t="s">
+      <c r="D94" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E89" s="26">
-        <v>0</v>
-      </c>
-      <c r="F89" s="13" t="e">
-        <f>E89/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H89" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I89" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="32"/>
-      <c r="C90" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D90" s="8" t="s">
+      <c r="E94" s="26">
+        <v>0</v>
+      </c>
+      <c r="F94" s="13" t="e">
+        <f>E94/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H94" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I94" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B95" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C95" s="4"/>
+      <c r="D95" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E90" s="26">
-        <v>0</v>
-      </c>
-      <c r="F90" s="13" t="e">
-        <f>E90/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H90" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I90" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="32"/>
-      <c r="C91" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E91" s="26">
-        <v>0</v>
-      </c>
-      <c r="F91" s="13" t="e">
-        <f>E91/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H91" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I91" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="32"/>
-      <c r="C92" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E92" s="26">
-        <v>0</v>
-      </c>
-      <c r="F92" s="13" t="e">
-        <f>E92/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H92" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I92" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="32"/>
-      <c r="C93" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E93" s="26">
-        <v>0</v>
-      </c>
-      <c r="F93" s="13" t="e">
-        <f>E93/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H93" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I93" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="32"/>
-      <c r="C94" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E94" s="26">
-        <v>0</v>
-      </c>
-      <c r="F94" s="13" t="e">
-        <f>E94/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H94" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I94" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="33"/>
-      <c r="C95" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E95" s="26">
-        <v>0</v>
-      </c>
-      <c r="F95" s="13" t="e">
-        <f>E95/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H95" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I95" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1507</v>
+      <c r="E95" s="19">
+        <v>0</v>
+      </c>
+      <c r="F95" s="19" t="e">
+        <f>E95/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H95" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="I95" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="12" t="s">
-        <v>124</v>
+      <c r="B96" s="41" t="s">
+        <v>119</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E96" s="19">
+        <v>0</v>
+      </c>
+      <c r="F96" s="19" t="e">
+        <f>E96/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H96" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="I96" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="42"/>
+      <c r="C97" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E97" s="26">
+        <v>0</v>
+      </c>
+      <c r="F97" s="13" t="e">
+        <f>E97/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H97" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I97" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="42"/>
+      <c r="C98" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E98" s="26">
+        <v>0</v>
+      </c>
+      <c r="F98" s="13" t="e">
+        <f>E98/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H98" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I98" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="42"/>
+      <c r="C99" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E99" s="26">
+        <v>0</v>
+      </c>
+      <c r="F99" s="13" t="e">
+        <f>E99/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H99" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I99" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="42"/>
+      <c r="C100" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E100" s="26">
+        <v>0</v>
+      </c>
+      <c r="F100" s="13" t="e">
+        <f>E100/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H100" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I100" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="42"/>
+      <c r="C101" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E101" s="26">
+        <v>0</v>
+      </c>
+      <c r="F101" s="13" t="e">
+        <f>E101/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H101" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I101" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="43"/>
+      <c r="C102" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D102" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E96" s="19">
-        <v>0</v>
-      </c>
-      <c r="F96" s="19" t="e">
-        <f>E96/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H96" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="I96" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E97" s="19">
-        <v>0</v>
-      </c>
-      <c r="F97" s="19" t="e">
-        <f>E97/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H97" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="I97" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="32"/>
-      <c r="C98" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E98" s="26">
-        <v>0</v>
-      </c>
-      <c r="F98" s="13" t="e">
-        <f>E98/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H98" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I98" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="32"/>
-      <c r="C99" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E99" s="26">
-        <v>0</v>
-      </c>
-      <c r="F99" s="13" t="e">
-        <f>E99/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H99" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I99" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="32"/>
-      <c r="C100" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E100" s="26">
-        <v>0</v>
-      </c>
-      <c r="F100" s="13" t="e">
-        <f>E100/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H100" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I100" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="32"/>
-      <c r="C101" s="9" t="s">
+      <c r="E102" s="26">
+        <v>0</v>
+      </c>
+      <c r="F102" s="13" t="e">
+        <f>E102/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H102" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I102" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="D101" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E101" s="26">
-        <v>0</v>
-      </c>
-      <c r="F101" s="13" t="e">
-        <f>E101/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H101" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I101" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="32"/>
-      <c r="C102" s="9" t="s">
+      <c r="C103" s="23"/>
+      <c r="D103" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="D102" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E102" s="26">
-        <v>0</v>
-      </c>
-      <c r="F102" s="13" t="e">
-        <f>E102/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H102" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I102" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="33"/>
-      <c r="C103" s="9" t="s">
+      <c r="E103" s="19">
+        <v>0</v>
+      </c>
+      <c r="F103" s="25" t="e">
+        <f>E103/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H103" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="I103" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B104" s="30"/>
+      <c r="C104" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D103" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E103" s="26">
-        <v>0</v>
-      </c>
-      <c r="F103" s="13" t="e">
-        <f>E103/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H103" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I103" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="27" t="s">
+      <c r="D104" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E104" s="26">
+        <v>0</v>
+      </c>
+      <c r="F104" s="13" t="e">
+        <f>E104/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H104" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I104" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="30"/>
+      <c r="C105" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E105" s="26">
+        <v>0</v>
+      </c>
+      <c r="F105" s="13" t="e">
+        <f>E105/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H105" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I105" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="30"/>
+      <c r="C106" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D106" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C104" s="23"/>
-      <c r="D104" s="24" t="s">
+      <c r="E106" s="26">
+        <v>0</v>
+      </c>
+      <c r="F106" s="13" t="e">
+        <f>E106/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H106" s="22">
+        <f t="shared" ref="H106" si="4">B106</f>
+        <v>0</v>
+      </c>
+      <c r="I106" s="22" t="str">
+        <f t="shared" ref="I106" si="5">C106</f>
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="30"/>
+      <c r="C107" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E107" s="26">
+        <v>0</v>
+      </c>
+      <c r="F107" s="13" t="e">
+        <f>E107/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H107" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I107" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B108" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E104" s="19">
-        <v>0</v>
-      </c>
-      <c r="F104" s="25" t="e">
-        <f>E104/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H104" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="I104" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="27"/>
-      <c r="C105" s="9" t="s">
+      <c r="C108" s="23"/>
+      <c r="D108" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="E108" s="19">
+        <v>0</v>
+      </c>
+      <c r="F108" s="25" t="e">
+        <f>E108/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H108" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="I108" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B109" s="30"/>
+      <c r="C109" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="26">
-        <v>0</v>
-      </c>
-      <c r="F105" s="13" t="e">
-        <f>E105/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H105" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I105" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="27"/>
-      <c r="C106" s="9" t="s">
+      <c r="D109" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="E109" s="26">
+        <v>0</v>
+      </c>
+      <c r="F109" s="13" t="e">
+        <f>E109/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H109" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I109" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B110" s="30"/>
+      <c r="C110" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="E106" s="26">
-        <v>0</v>
-      </c>
-      <c r="F106" s="13" t="e">
-        <f>E106/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H106" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I106" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="27"/>
-      <c r="C107" s="9" t="s">
+      <c r="D110" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="E110" s="26">
+        <v>0</v>
+      </c>
+      <c r="F110" s="13" t="e">
+        <f>E110/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H110" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I110" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="30"/>
+      <c r="C111" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="E107" s="26">
-        <v>0</v>
-      </c>
-      <c r="F107" s="13" t="e">
-        <f>E107/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H107" s="22">
-        <f t="shared" ref="H107" si="4">B107</f>
-        <v>0</v>
-      </c>
-      <c r="I107" s="22" t="str">
-        <f t="shared" ref="I107" si="5">C107</f>
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B108" s="27"/>
-      <c r="C108" s="9" t="s">
+      <c r="D111" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E111" s="26">
+        <v>0</v>
+      </c>
+      <c r="F111" s="13" t="e">
+        <f>E111/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H111" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I111" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B112" s="30"/>
+      <c r="C112" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E112" s="26">
+        <v>0</v>
+      </c>
+      <c r="F112" s="13" t="e">
+        <f>E112/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H112" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I112" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B113" s="30"/>
+      <c r="C113" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E113" s="26">
+        <v>0</v>
+      </c>
+      <c r="F113" s="13" t="e">
+        <f>E113/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H113" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I113" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B114" s="30"/>
+      <c r="C114" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E114" s="26">
+        <v>0</v>
+      </c>
+      <c r="F114" s="13" t="e">
+        <f>E114/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H114" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I114" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B115" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="C115" s="23"/>
+      <c r="D115" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="E115" s="19">
+        <v>0</v>
+      </c>
+      <c r="F115" s="25" t="e">
+        <f>E115/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H115" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="I115" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B116" s="30"/>
+      <c r="C116" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E116" s="26">
+        <v>0</v>
+      </c>
+      <c r="F116" s="13" t="e">
+        <f>E116/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H116" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I116" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B117" s="30"/>
+      <c r="C117" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E117" s="26">
+        <v>0</v>
+      </c>
+      <c r="F117" s="13" t="e">
+        <f>E117/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H117" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I117" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B118" s="30"/>
+      <c r="C118" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E118" s="26">
+        <v>0</v>
+      </c>
+      <c r="F118" s="13" t="e">
+        <f>E118/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H118" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I118" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B119" s="30"/>
+      <c r="C119" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E119" s="26">
+        <v>0</v>
+      </c>
+      <c r="F119" s="13" t="e">
+        <f>E119/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H119" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I119" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B120" s="30"/>
+      <c r="C120" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E120" s="26">
+        <v>0</v>
+      </c>
+      <c r="F120" s="13" t="e">
+        <f>E120/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H120" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I120" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B121" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="C121" s="23"/>
+      <c r="D121" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="E121" s="19">
+        <v>0</v>
+      </c>
+      <c r="F121" s="25" t="e">
+        <f>E121/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H121" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="I121" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B122" s="30"/>
+      <c r="C122" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E122" s="26">
+        <v>0</v>
+      </c>
+      <c r="F122" s="13" t="e">
+        <f>E122/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H122" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I122" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B123" s="30"/>
+      <c r="C123" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E123" s="26">
+        <v>0</v>
+      </c>
+      <c r="F123" s="13" t="e">
+        <f>E123/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H123" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I123" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B124" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="C124" s="23"/>
+      <c r="D124" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="E124" s="19">
+        <v>0</v>
+      </c>
+      <c r="F124" s="25" t="e">
+        <f>E124/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H124" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="I124" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B125" s="30"/>
+      <c r="C125" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E125" s="26">
+        <v>0</v>
+      </c>
+      <c r="F125" s="13" t="e">
+        <f>E125/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H125" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I125" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B126" s="30"/>
+      <c r="C126" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E126" s="26">
+        <v>0</v>
+      </c>
+      <c r="F126" s="13" t="e">
+        <f>E126/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H126" s="22">
+        <f t="shared" ref="H126:H129" si="6">B126</f>
+        <v>0</v>
+      </c>
+      <c r="I126" s="22" t="str">
+        <f t="shared" ref="I126:I129" si="7">C126</f>
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B127" s="30"/>
+      <c r="C127" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D127" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D108" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E108" s="26">
-        <v>0</v>
-      </c>
-      <c r="F108" s="13" t="e">
-        <f>E108/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H108" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I108" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="C109" s="23"/>
-      <c r="D109" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="E109" s="19">
-        <v>0</v>
-      </c>
-      <c r="F109" s="25" t="e">
-        <f>E109/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H109" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="I109" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="27"/>
-      <c r="C110" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E110" s="26">
-        <v>0</v>
-      </c>
-      <c r="F110" s="13" t="e">
-        <f>E110/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H110" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I110" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="27"/>
-      <c r="C111" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E111" s="26">
-        <v>0</v>
-      </c>
-      <c r="F111" s="13" t="e">
-        <f>E111/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H111" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I111" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="27"/>
-      <c r="C112" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E112" s="26">
-        <v>0</v>
-      </c>
-      <c r="F112" s="13" t="e">
-        <f>E112/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H112" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I112" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="27"/>
-      <c r="C113" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E113" s="26">
-        <v>0</v>
-      </c>
-      <c r="F113" s="13" t="e">
-        <f>E113/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H113" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I113" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="27"/>
-      <c r="C114" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E114" s="26">
-        <v>0</v>
-      </c>
-      <c r="F114" s="13" t="e">
-        <f>E114/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H114" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I114" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="27"/>
-      <c r="C115" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E115" s="26">
-        <v>0</v>
-      </c>
-      <c r="F115" s="13" t="e">
-        <f>E115/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H115" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I115" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="C116" s="23"/>
-      <c r="D116" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="E116" s="19">
-        <v>0</v>
-      </c>
-      <c r="F116" s="25" t="e">
-        <f>E116/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H116" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="I116" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="27"/>
-      <c r="C117" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E117" s="26">
-        <v>0</v>
-      </c>
-      <c r="F117" s="13" t="e">
-        <f>E117/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H117" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I117" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B118" s="27"/>
-      <c r="C118" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E118" s="26">
-        <v>0</v>
-      </c>
-      <c r="F118" s="13" t="e">
-        <f>E118/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H118" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I118" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B119" s="27"/>
-      <c r="C119" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E119" s="26">
-        <v>0</v>
-      </c>
-      <c r="F119" s="13" t="e">
-        <f>E119/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H119" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I119" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B120" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="C120" s="23"/>
-      <c r="D120" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="E120" s="19">
-        <v>0</v>
-      </c>
-      <c r="F120" s="25" t="e">
-        <f>E120/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H120" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="I120" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B121" s="27"/>
-      <c r="C121" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E121" s="26">
-        <v>0</v>
-      </c>
-      <c r="F121" s="13" t="e">
-        <f>E121/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H121" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I121" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="27"/>
-      <c r="C122" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E122" s="26">
-        <v>0</v>
-      </c>
-      <c r="F122" s="13" t="e">
-        <f>E122/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H122" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I122" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>2102</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="C123" s="23"/>
-      <c r="D123" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="E123" s="19">
-        <v>0</v>
-      </c>
-      <c r="F123" s="25" t="e">
-        <f>E123/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H123" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="I123" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B124" s="27"/>
-      <c r="C124" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="E124" s="26">
-        <v>0</v>
-      </c>
-      <c r="F124" s="13" t="e">
-        <f>E124/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H124" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I124" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B125" s="27"/>
-      <c r="C125" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E125" s="26">
-        <v>0</v>
-      </c>
-      <c r="F125" s="13" t="e">
-        <f>E125/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H125" s="22">
-        <f t="shared" ref="H125:H128" si="6">B125</f>
-        <v>0</v>
-      </c>
-      <c r="I125" s="22" t="str">
-        <f t="shared" ref="I125:I128" si="7">C125</f>
-        <v>2202</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B126" s="27"/>
-      <c r="C126" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E126" s="26">
-        <v>0</v>
-      </c>
-      <c r="F126" s="13" t="e">
-        <f>E126/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H126" s="22">
+      <c r="E127" s="26">
+        <v>0</v>
+      </c>
+      <c r="F127" s="13" t="e">
+        <f>E127/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H127" s="22">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I126" s="22" t="str">
+      <c r="I127" s="22" t="str">
         <f t="shared" si="7"/>
         <v>2203</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B127" s="27"/>
-      <c r="C127" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E127" s="26">
-        <v>0</v>
-      </c>
-      <c r="F127" s="13" t="e">
-        <f>E127/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H127" s="22">
+    <row r="128" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B128" s="30"/>
+      <c r="C128" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E128" s="26">
+        <v>0</v>
+      </c>
+      <c r="F128" s="13" t="e">
+        <f>E128/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H128" s="22">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I127" s="22" t="str">
+      <c r="I128" s="22" t="str">
         <f t="shared" si="7"/>
         <v>2204</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="27"/>
-      <c r="C128" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E128" s="26">
-        <v>0</v>
-      </c>
-      <c r="F128" s="13" t="e">
-        <f>E128/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H128" s="22">
+    <row r="129" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B129" s="30"/>
+      <c r="C129" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E129" s="26">
+        <v>0</v>
+      </c>
+      <c r="F129" s="13" t="e">
+        <f>E129/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H129" s="22">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I128" s="22" t="str">
+      <c r="I129" s="22" t="str">
         <f t="shared" si="7"/>
         <v>2205</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="27"/>
-      <c r="C129" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="E129" s="26">
-        <v>0</v>
-      </c>
-      <c r="F129" s="13" t="e">
-        <f>E129/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H129" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I129" s="22" t="str">
+    <row r="130" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B130" s="30"/>
+      <c r="C130" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E130" s="26">
+        <v>0</v>
+      </c>
+      <c r="F130" s="13" t="e">
+        <f>E130/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H130" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I130" s="22" t="str">
         <f t="shared" si="3"/>
         <v>2206</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B130" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C130" s="4"/>
-      <c r="D130" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E130" s="19">
-        <v>0</v>
-      </c>
-      <c r="F130" s="19" t="e">
-        <f>E130/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H130" s="22" t="str">
+    <row r="131" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B131" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C131" s="4"/>
+      <c r="D131" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E131" s="19">
+        <v>0</v>
+      </c>
+      <c r="F131" s="19" t="e">
+        <f>E131/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H131" s="22" t="str">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="I130" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B131" s="27"/>
-      <c r="C131" s="9">
+      <c r="I131" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B132" s="30"/>
+      <c r="C132" s="9">
         <v>2301</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="D132" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E131" s="26">
-        <v>0</v>
-      </c>
-      <c r="F131" s="13" t="e">
-        <f>E131/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H131" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I131" s="22">
+      <c r="E132" s="26">
+        <v>0</v>
+      </c>
+      <c r="F132" s="13" t="e">
+        <f>E132/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H132" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I132" s="22">
         <f t="shared" si="3"/>
         <v>2301</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B132" s="27"/>
-      <c r="C132" s="9" t="s">
+    <row r="133" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B133" s="30"/>
+      <c r="C133" s="9">
+        <v>2302</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E133" s="26">
+        <v>0</v>
+      </c>
+      <c r="F133" s="13" t="e">
+        <f>E133/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H133" s="22">
+        <f t="shared" ref="H133" si="8">B133</f>
+        <v>0</v>
+      </c>
+      <c r="I133" s="22">
+        <f t="shared" ref="I133" si="9">C133</f>
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B134" s="30"/>
+      <c r="C134" s="9">
+        <v>2303</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E134" s="26">
+        <v>0</v>
+      </c>
+      <c r="F134" s="13" t="e">
+        <f>E134/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H134" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I134" s="22">
+        <f t="shared" si="3"/>
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B135" s="30"/>
+      <c r="C135" s="9">
+        <v>2304</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E135" s="26">
+        <v>0</v>
+      </c>
+      <c r="F135" s="13" t="e">
+        <f>E135/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H135" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I135" s="22">
+        <f t="shared" si="3"/>
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B136" s="30"/>
+      <c r="C136" s="9">
+        <v>2305</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E136" s="26">
+        <v>0</v>
+      </c>
+      <c r="F136" s="13" t="e">
+        <f>E136/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H136" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I136" s="22">
+        <f t="shared" si="3"/>
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B137" s="30"/>
+      <c r="C137" s="9">
+        <v>2306</v>
+      </c>
+      <c r="D137" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D132" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E132" s="26">
-        <v>0</v>
-      </c>
-      <c r="F132" s="13" t="e">
-        <f>E132/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H132" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I132" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>2302</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B133" s="27"/>
-      <c r="C133" s="9">
-        <v>2303</v>
-      </c>
-      <c r="D133" s="8" t="s">
+      <c r="E137" s="26">
+        <v>0</v>
+      </c>
+      <c r="F137" s="13" t="e">
+        <f>E137/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H137" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I137" s="22">
+        <f t="shared" si="3"/>
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B138" s="30"/>
+      <c r="C138" s="9">
+        <v>2307</v>
+      </c>
+      <c r="D138" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E133" s="26">
-        <v>0</v>
-      </c>
-      <c r="F133" s="13" t="e">
-        <f>E133/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H133" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I133" s="22">
-        <f t="shared" si="3"/>
-        <v>2303</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="27"/>
-      <c r="C134" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D134" s="8" t="s">
+      <c r="E138" s="26">
+        <v>0</v>
+      </c>
+      <c r="F138" s="13" t="e">
+        <f>E138/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H138" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I138" s="22">
+        <f t="shared" si="3"/>
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B139" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C139" s="23"/>
+      <c r="D139" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="E139" s="19">
+        <v>0</v>
+      </c>
+      <c r="F139" s="25" t="e">
+        <f>E139/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H139" s="22" t="str">
+        <f t="shared" ref="H139:I140" si="10">B139</f>
+        <v>24</v>
+      </c>
+      <c r="I139" s="22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B140" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E134" s="26">
-        <v>0</v>
-      </c>
-      <c r="F134" s="13" t="e">
-        <f>E134/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H134" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I134" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>2304</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="27"/>
-      <c r="C135" s="9" t="s">
+      <c r="C140" s="6"/>
+      <c r="D140" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D135" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E135" s="26">
-        <v>0</v>
-      </c>
-      <c r="F135" s="13" t="e">
-        <f>E135/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H135" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I135" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B136" s="27"/>
-      <c r="C136" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E136" s="26">
-        <v>0</v>
-      </c>
-      <c r="F136" s="13" t="e">
-        <f>E136/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H136" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I136" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B137" s="27"/>
-      <c r="C137" s="9">
-        <v>2307</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E137" s="26">
-        <v>0</v>
-      </c>
-      <c r="F137" s="13" t="e">
-        <f>E137/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H137" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I137" s="22">
-        <f t="shared" si="3"/>
-        <v>2307</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B138" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="C138" s="23"/>
-      <c r="D138" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="E138" s="19">
-        <v>0</v>
-      </c>
-      <c r="F138" s="25" t="e">
-        <f>E138/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H138" s="22" t="str">
-        <f t="shared" ref="H138:I139" si="8">B138</f>
-        <v>24</v>
-      </c>
-      <c r="I138" s="22">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B139" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C139" s="6"/>
-      <c r="D139" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E139" s="20">
-        <f>E138+E130+E123+E120+E116+E109+E104+E97+E96+E88+E84+E70+E60+E57+E53+E48+E40+E35+E32+E24+E20+E15+E9+E5</f>
-        <v>0</v>
-      </c>
-      <c r="F139" s="20" t="e">
-        <f>E139/E139*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H139" s="22" t="str">
-        <f t="shared" si="8"/>
+      <c r="E140" s="20">
+        <f>E139+E131+E124+E121+E115+E108+E103+E96+E95+E87+E83+E70+E60+E57+E53+E48+E40+E35+E32+E24+E20+E15+E9+E5</f>
+        <v>0</v>
+      </c>
+      <c r="F140" s="20" t="e">
+        <f>E140/E140*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H140" s="22" t="str">
+        <f t="shared" si="10"/>
         <v>合计</v>
       </c>
-      <c r="I139" s="22">
-        <f t="shared" si="8"/>
+      <c r="I140" s="22">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B104:B108"/>
-    <mergeCell ref="B109:B115"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B115:B120"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="B124:B130"/>
+    <mergeCell ref="B131:B138"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B69"/>
+    <mergeCell ref="B70:B82"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="B87:B94"/>
+    <mergeCell ref="B96:B102"/>
+    <mergeCell ref="B40:B47"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B123:B129"/>
-    <mergeCell ref="B130:B137"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B69"/>
-    <mergeCell ref="B70:B83"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B88:B95"/>
-    <mergeCell ref="B97:B103"/>
-    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="B108:B114"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B15:B19"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C5 B33 B38 C9 B8 B12 B10 C15 B14 C20 B19 C24 B23 C32 B31 B34 B69 B62 B44 B39 D139 B37 C35 C40 B52 C48 B56 C53 B59 C57 B61 C60 B83:C83 C70 B85:C87 C84 B95 C88 B103 D96 C97 C130 B6 D6 B7 D7 D8 D10 B11 D11 D14 B16 D16 B17 D17 B18 D18 D19 B21 D21 B22 D22 D23 B25 D25 B26 D26 B27 D27 B28 D28 B29 D29 B30 D30 D31 B36 D36 D37 D38 D39 B41 D41 B42 D42 B43 D43 D44 B45 D45 B46 D46 B47 D47 B49 D49 B50 D50 B51 D52 B54 D54 B55 D55 D56 B58 D58 D59 D61 D62 B63 D63 B64 D64 B65 D65 B66 D66 B67 B68 D68 D69 B71 D71 B72 D72 B73 D73 B74 D74 B75 B76 B77 B78 B79 D79 B80 D80 B81 D81 B82 D82 B89 D89 B90 D90 B91 D91 B92 D92 B93 D93 B94 D94 D95 B98 D98 B99 D99 B100 D100 B101 D101 B102 D102 D103 D24 D32 D35 D40 D48 D53 D57 D60 D83 D70 D85:D87 D88 D97 D130 D131:D136 C131:C136" numberStoredAsText="1"/>
+    <ignoredError sqref="C5 B33 B38 C9 B8 B12 B10 C15 B14 C20 B19 C24 B23 C32 B31 B34 B69 B62 B44 B39 D140 B37 C35 C40 B52 C48 B56 C53 B59 C57 B61 C60 B82 C70 B84:C86 C83 B94 C87 B102 C96 B6 B7 D6:D8 B11 D10:D11 D14 B16 B17 B18 D16:D19 B21 B22 B25 B26 B27 B28 B29 B30 B36 B41 B42 B43 B45 B46 B47 B49 B50 B51 B54 B55 B58 B63 B64 B65 B66 B67 B68 B71 B72 B73 B74 B75 B76 B77 B78 B79 B80 B81 B88 B89 B90 B91 B92 B93 B97 B98 B99 B100 B101 D21:D32 D35:D50 D52:D66 D79:D82 D68:D74 D84:D102 C131:D132 D134 D135:D137" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>